--- a/results_final/ti_MM.xlsx
+++ b/results_final/ti_MM.xlsx
@@ -486,91 +486,91 @@
         <v>0.98</v>
       </c>
       <c r="D2">
-        <v>1.555858920226742</v>
+        <v>1.556060110305386</v>
       </c>
       <c r="E2">
-        <v>2.196572257295442</v>
+        <v>2.197559776593686</v>
       </c>
       <c r="F2">
-        <v>2.832869788651671</v>
+        <v>2.835601846558793</v>
       </c>
       <c r="G2">
-        <v>3.427740200861491</v>
+        <v>3.433433688526137</v>
       </c>
       <c r="H2">
-        <v>3.962144214996699</v>
+        <v>3.972124914913886</v>
       </c>
       <c r="I2">
-        <v>4.428277519675718</v>
+        <v>4.443834622851361</v>
       </c>
       <c r="J2">
-        <v>4.824832601279812</v>
+        <v>4.847085175494485</v>
       </c>
       <c r="K2">
-        <v>5.153651804216478</v>
+        <v>5.183430842096524</v>
       </c>
       <c r="L2">
-        <v>5.417742507053519</v>
+        <v>5.455506157444306</v>
       </c>
       <c r="M2">
-        <v>5.612538644793729</v>
+        <v>5.658309842224586</v>
       </c>
       <c r="N2">
-        <v>5.742396031424508</v>
+        <v>5.795671990345435</v>
       </c>
       <c r="O2">
-        <v>5.809534422274022</v>
+        <v>5.869153917792468</v>
       </c>
       <c r="P2">
-        <v>5.81385398569016</v>
+        <v>5.877817653592294</v>
       </c>
       <c r="Q2">
-        <v>5.76771597214384</v>
+        <v>5.833945766326782</v>
       </c>
       <c r="R2">
-        <v>5.693556688592631</v>
+        <v>5.760697970840522</v>
       </c>
       <c r="S2">
-        <v>5.606060701450778</v>
+        <v>5.673253170923223</v>
       </c>
       <c r="T2">
-        <v>5.514636877765335</v>
+        <v>5.581356806311221</v>
       </c>
       <c r="U2">
-        <v>5.425116534835418</v>
+        <v>5.491067691967056</v>
       </c>
       <c r="V2">
-        <v>5.340920936438714</v>
+        <v>5.405958968213211</v>
       </c>
       <c r="W2">
-        <v>5.263865152931777</v>
+        <v>5.327945106338505</v>
       </c>
       <c r="X2">
-        <v>5.194711521837474</v>
+        <v>5.257851493563179</v>
       </c>
       <c r="Y2">
-        <v>5.133549875332645</v>
+        <v>5.195805961433192</v>
       </c>
       <c r="Z2">
-        <v>5.080057449905331</v>
+        <v>5.141506650078503</v>
       </c>
       <c r="AA2">
-        <v>5.033675012928659</v>
+        <v>5.094403744668927</v>
       </c>
       <c r="AB2">
-        <v>4.993724602768278</v>
+        <v>5.053821167629343</v>
       </c>
       <c r="AC2">
-        <v>4.959486643387166</v>
+        <v>5.019036464908085</v>
       </c>
       <c r="AD2">
-        <v>4.93024891281182</v>
+        <v>4.989331701742379</v>
       </c>
       <c r="AE2">
-        <v>4.905336158999279</v>
+        <v>4.964024400924715</v>
       </c>
       <c r="AF2">
-        <v>4.887835291975309</v>
+        <v>4.946251086557831</v>
       </c>
     </row>
   </sheetData>
